--- a/Plancheck/check_protocol/paroi ganglions.xlsx
+++ b/Plancheck/check_protocol/paroi ganglions.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -418,9 +418,6 @@
     <t>PTV Axillaire</t>
   </si>
   <si>
-    <t>Plexus Brachial</t>
-  </si>
-  <si>
     <t>Oesophage</t>
   </si>
   <si>
@@ -521,6 +518,12 @@
   </si>
   <si>
     <t>Coeur</t>
+  </si>
+  <si>
+    <t>PlexusGche</t>
+  </si>
+  <si>
+    <t>PlexusDt</t>
   </si>
 </sst>
 </file>
@@ -2312,10 +2315,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,7 +2375,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -2527,10 +2530,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="E21" s="12">
         <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="G21" s="12">
         <v>1</v>
@@ -2538,10 +2544,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="E22" s="12">
         <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="G22" s="12">
         <v>1</v>
@@ -2549,7 +2558,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E23" s="12">
         <v>1</v>
@@ -2560,12 +2569,23 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
       </c>
       <c r="G24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2617,7 +2637,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2628,7 +2648,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2639,7 +2659,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2650,7 +2670,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2661,7 +2681,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2674,7 +2694,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2687,7 +2707,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2698,7 +2718,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2850,18 +2870,18 @@
         <v>113</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2869,38 +2889,38 @@
         <v>115</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2908,13 +2928,13 @@
         <v>120</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2922,18 +2942,18 @@
         <v>121</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2941,13 +2961,13 @@
         <v>128</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2955,13 +2975,13 @@
         <v>130</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2969,27 +2989,27 @@
         <v>127</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2997,13 +3017,13 @@
         <v>129</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
